--- a/实验结果/HM模块运行时间.xlsx
+++ b/实验结果/HM模块运行时间.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\实验结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D51E038-29C9-469B-899F-A24F33CF8275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65021A8-8623-4314-B3C2-DC7E8AA435AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="632" firstSheet="2" activeTab="2" xr2:uid="{24DB45F2-BE9B-4FA8-A49F-ED3255A3C19F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="632" activeTab="1" xr2:uid="{24DB45F2-BE9B-4FA8-A49F-ED3255A3C19F}"/>
   </bookViews>
   <sheets>
     <sheet name="HM模块分析" sheetId="2" r:id="rId1"/>
     <sheet name="HM帧内预测模块" sheetId="3" r:id="rId2"/>
     <sheet name="HM变换量化模块" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,10 +54,6 @@
   </si>
   <si>
     <t>变换量化模块总时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速DST变换函数xGetHADs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,6 +112,10 @@
     <t>帧内预测模块estIntra</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>快速DST变换函数fastForwardDST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -126,8 +123,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -178,10 +175,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -222,7 +219,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -235,13 +232,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>不同测试序列下</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -270,7 +267,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -962,7 +959,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -975,7 +972,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -989,7 +986,7 @@
               <a:t>不同测试序列下</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1018,7 +1015,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1596,7 +1593,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1609,13 +1606,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>不同测试序列下</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -1644,7 +1641,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -2336,7 +2333,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -2350,7 +2347,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -2380,7 +2377,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -2959,7 +2956,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -2972,30 +2969,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>不同测试序列下变换量化</a:t>
+              <a:t>变换量化</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>模块</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>中各函数</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>运行时间百分比</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -3022,7 +3019,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -3064,7 +3061,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快速DST变换函数xGetHADs</c:v>
+                  <c:v>快速DST变换函数fastForwardDST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4134,7 +4131,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -4147,7 +4144,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -4158,10 +4155,10 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>不同测试序列下变换量化</a:t>
+              <a:t>变换量化</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -4175,7 +4172,7 @@
               <a:t>模块</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -4188,7 +4185,7 @@
               </a:rPr>
               <a:t>中各函数运行时间</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -4215,7 +4212,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -4247,7 +4244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>快速DST变换函数xGetHADs</c:v>
+                  <c:v>快速DST变换函数fastForwardDST</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8479,15 +8476,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1409178</xdr:colOff>
+      <xdr:colOff>1787569</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>169623</xdr:rowOff>
+      <xdr:rowOff>52191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>221175</xdr:colOff>
+      <xdr:colOff>599566</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>122042</xdr:rowOff>
+      <xdr:rowOff>4610</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8515,269 +8512,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HAD优化"/>
-      <sheetName val="PIA优化"/>
-      <sheetName val="模块整体优化"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>HADs</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>CUDA_HADs_D</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>CUDA_HADs_Z</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>BQSquare_416x240_60</v>
-          </cell>
-          <cell r="B2">
-            <v>0.23637</v>
-          </cell>
-          <cell r="C2">
-            <v>0.187</v>
-          </cell>
-          <cell r="D2">
-            <v>0.20499999999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BQMall_832_480_60</v>
-          </cell>
-          <cell r="B3">
-            <v>1.01251</v>
-          </cell>
-          <cell r="C3">
-            <v>0.80200000000000005</v>
-          </cell>
-          <cell r="D3">
-            <v>0.875</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ChinaSpeed_1024x768_30</v>
-          </cell>
-          <cell r="B4">
-            <v>1.7213499999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>1.3663199570740505</v>
-          </cell>
-          <cell r="D4">
-            <v>1.4849029617833844</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Johnny_1280x720_60</v>
-          </cell>
-          <cell r="B5">
-            <v>2.0268600000000001</v>
-          </cell>
-          <cell r="C5">
-            <v>1.5877850396346982</v>
-          </cell>
-          <cell r="D5">
-            <v>1.7469938554490709</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BasketballDrive_1920x1080_50</v>
-          </cell>
-          <cell r="B6">
-            <v>4.5199199999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>3.5453606330933898</v>
-          </cell>
-          <cell r="D6">
-            <v>3.8945868334613318</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Traffic_2560x1600_30</v>
-          </cell>
-          <cell r="B7">
-            <v>9.0407399999999996</v>
-          </cell>
-          <cell r="C7">
-            <v>7.2012406785817262</v>
-          </cell>
-          <cell r="D7">
-            <v>7.8080988576408172</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>predIntraAng</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>CUDA_PIA</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>BQSquare_416x240_60</v>
-          </cell>
-          <cell r="B2">
-            <v>0.21756</v>
-          </cell>
-          <cell r="C2">
-            <v>0.18953960241637727</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BQMall_832_480_60</v>
-          </cell>
-          <cell r="B3">
-            <v>0.82325000000000004</v>
-          </cell>
-          <cell r="C3">
-            <v>0.73923584609168047</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ChinaSpeed_1024x768_30</v>
-          </cell>
-          <cell r="B4">
-            <v>1.46163</v>
-          </cell>
-          <cell r="C4">
-            <v>1.3012276656547401</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Johnny_1280x720_60</v>
-          </cell>
-          <cell r="B5">
-            <v>1.5982799999999999</v>
-          </cell>
-          <cell r="C5">
-            <v>1.4429076989744329</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BasketballDrive_1920x1080_50</v>
-          </cell>
-          <cell r="B6">
-            <v>3.8400599999999998</v>
-          </cell>
-          <cell r="C6">
-            <v>3.4913762535572386</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Traffic_2560x1600_30</v>
-          </cell>
-          <cell r="B7">
-            <v>7.0471199999999996</v>
-          </cell>
-          <cell r="C7">
-            <v>6.2051440093687527</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>串行帧内预测模块</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>并行帧内预测模块</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>BQSquare_416x240_60</v>
-          </cell>
-          <cell r="B2">
-            <v>1.75217</v>
-          </cell>
-          <cell r="C2">
-            <v>1.4454462959907606</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>BQMall_832_480_60</v>
-          </cell>
-          <cell r="B3">
-            <v>7.1285699999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>5.7326658624849216</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ChinaSpeed_1024x768_30</v>
-          </cell>
-          <cell r="B4">
-            <v>11.964549999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>9.762198107049608</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Johnny_1280x720_60</v>
-          </cell>
-          <cell r="B5">
-            <v>13.939080000000001</v>
-          </cell>
-          <cell r="C5">
-            <v>11.436724647193961</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>BasketballDrive_1920x1080_50</v>
-          </cell>
-          <cell r="B6">
-            <v>31.38926</v>
-          </cell>
-          <cell r="C6">
-            <v>26.088148271276594</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Traffic_2560x1600_30</v>
-          </cell>
-          <cell r="B7">
-            <v>61.977899999999998</v>
-          </cell>
-          <cell r="C7">
-            <v>50.747482191107835</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9080,7 +8814,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9102,13 +8836,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -9125,7 +8859,7 @@
         <v>0.24142</v>
       </c>
       <c r="D2" s="3">
-        <f>E2-B2-C2</f>
+        <f t="shared" ref="D2:D7" si="0">E2-B2-C2</f>
         <v>0.16328000000000006</v>
       </c>
       <c r="E2" s="3">
@@ -9134,7 +8868,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>7.1285699999999999</v>
@@ -9143,7 +8877,7 @@
         <v>1.00268</v>
       </c>
       <c r="D3" s="3">
-        <f>E3-B3-C3</f>
+        <f t="shared" si="0"/>
         <v>0.63659999999999939</v>
       </c>
       <c r="E3" s="3">
@@ -9152,7 +8886,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>11.964549999999999</v>
@@ -9161,7 +8895,7 @@
         <v>1.64476</v>
       </c>
       <c r="D4" s="3">
-        <f>E4-B4-C4</f>
+        <f t="shared" si="0"/>
         <v>1.0291100000000009</v>
       </c>
       <c r="E4" s="3">
@@ -9170,7 +8904,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>13.939080000000001</v>
@@ -9179,7 +8913,7 @@
         <v>1.96458</v>
       </c>
       <c r="D5" s="3">
-        <f>E5-B5-C5</f>
+        <f t="shared" si="0"/>
         <v>1.1944800000000002</v>
       </c>
       <c r="E5" s="3">
@@ -9188,7 +8922,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>31.38926</v>
@@ -9197,7 +8931,7 @@
         <v>4.32768</v>
       </c>
       <c r="D6" s="3">
-        <f>E6-B6-C6</f>
+        <f t="shared" si="0"/>
         <v>2.9197599999999975</v>
       </c>
       <c r="E6" s="3">
@@ -9206,7 +8940,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>61.977899999999998</v>
@@ -9215,7 +8949,7 @@
         <v>8.8093800000000009</v>
       </c>
       <c r="D7" s="3">
-        <f>E7-B7-C7</f>
+        <f t="shared" si="0"/>
         <v>5.2544399999999989</v>
       </c>
       <c r="E7" s="3">
@@ -9234,7 +8968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7048501B-C1B2-4119-AFAB-91B8347F1CCC}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
       <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
@@ -9258,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -9275,7 +9009,7 @@
         <v>0.21756</v>
       </c>
       <c r="D2" s="2">
-        <f>E2-B2-C2</f>
+        <f t="shared" ref="D2:D7" si="0">E2-B2-C2</f>
         <v>1.2982400000000001</v>
       </c>
       <c r="E2" s="2">
@@ -9284,7 +9018,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1.01251</v>
@@ -9293,7 +9027,7 @@
         <v>0.82325000000000004</v>
       </c>
       <c r="D3" s="2">
-        <f>E3-B3-C3</f>
+        <f t="shared" si="0"/>
         <v>5.2928100000000002</v>
       </c>
       <c r="E3" s="2">
@@ -9302,7 +9036,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1.7213499999999999</v>
@@ -9311,7 +9045,7 @@
         <v>1.46163</v>
       </c>
       <c r="D4" s="2">
-        <f>E4-B4-C4</f>
+        <f t="shared" si="0"/>
         <v>8.7815700000000003</v>
       </c>
       <c r="E4" s="2">
@@ -9320,7 +9054,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2.0268600000000001</v>
@@ -9329,7 +9063,7 @@
         <v>1.5982799999999999</v>
       </c>
       <c r="D5" s="2">
-        <f>E5-B5-C5</f>
+        <f t="shared" si="0"/>
         <v>10.313940000000002</v>
       </c>
       <c r="E5" s="2">
@@ -9338,7 +9072,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>4.5199199999999999</v>
@@ -9347,7 +9081,7 @@
         <v>3.8400599999999998</v>
       </c>
       <c r="D6" s="2">
-        <f>E6-B6-C6</f>
+        <f t="shared" si="0"/>
         <v>23.129280000000001</v>
       </c>
       <c r="E6" s="2">
@@ -9356,7 +9090,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>9.0407399999999996</v>
@@ -9365,7 +9099,7 @@
         <v>7.0471199999999996</v>
       </c>
       <c r="D7" s="2">
-        <f>E7-B7-C7</f>
+        <f t="shared" si="0"/>
         <v>45.890039999999999</v>
       </c>
       <c r="E7" s="2">
@@ -9383,8 +9117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3321B011-1977-44C3-94EE-57A681DF00C7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C7" sqref="C2:C7"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="B7" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9402,22 +9136,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -9443,7 +9177,7 @@
         <v>2.4979999999999999E-2</v>
       </c>
       <c r="G2" s="4">
-        <f>H2-B2-C2-D2-E2-F2</f>
+        <f t="shared" ref="G2:G7" si="0">H2-B2-C2-D2-E2-F2</f>
         <v>0.12351999999999999</v>
       </c>
       <c r="H2" s="4">
@@ -9452,7 +9186,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0.18653</v>
@@ -9470,7 +9204,7 @@
         <v>0.11275</v>
       </c>
       <c r="G3" s="4">
-        <f>H3-B3-C3-D3-E3-F3</f>
+        <f t="shared" si="0"/>
         <v>0.50670999999999999</v>
       </c>
       <c r="H3" s="4">
@@ -9479,7 +9213,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>0.30420000000000003</v>
@@ -9497,7 +9231,7 @@
         <v>0.20075000000000001</v>
       </c>
       <c r="G4" s="4">
-        <f>H4-B4-C4-D4-E4-F4</f>
+        <f t="shared" si="0"/>
         <v>0.80805999999999978</v>
       </c>
       <c r="H4" s="4">
@@ -9506,7 +9240,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>0.35633999999999999</v>
@@ -9524,7 +9258,7 @@
         <v>0.22950000000000001</v>
       </c>
       <c r="G5" s="4">
-        <f>H5-B5-C5-D5-E5-F5</f>
+        <f t="shared" si="0"/>
         <v>0.99689999999999968</v>
       </c>
       <c r="H5" s="4">
@@ -9533,7 +9267,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>0.80688000000000004</v>
@@ -9551,7 +9285,7 @@
         <v>0.50507999999999997</v>
       </c>
       <c r="G6" s="4">
-        <f>H6-B6-C6-D6-E6-F6</f>
+        <f t="shared" si="0"/>
         <v>2.1556800000000003</v>
       </c>
       <c r="H6" s="4">
@@ -9560,7 +9294,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4">
         <v>1.60398</v>
@@ -9578,7 +9312,7 @@
         <v>1.0426800000000001</v>
       </c>
       <c r="G7" s="4">
-        <f>H7-B7-C7-D7-E7-F7</f>
+        <f t="shared" si="0"/>
         <v>4.408500000000001</v>
       </c>
       <c r="H7" s="4">
